--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC73DB3-2236-46C6-B2CF-191491630067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A8A059-04A2-427E-A04A-A5A780DE45FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1345,15 +1345,6 @@
 FX = 
 LO ≥</t>
     </r>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>LO</t>
   </si>
   <si>
     <t>Annual Extraction Upper Bound [PJ/a]</t>
@@ -1807,7 +1798,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1913,7 +1904,6 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1968,6 +1958,20 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2043,40 +2047,13 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2580,10 +2557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I21"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E13"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2600,7 +2577,7 @@
     <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="17.399999999999999">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2589,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:9">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2620,7 +2597,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2609,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
@@ -2658,7 +2635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.6">
+    <row r="6" spans="2:9" ht="39.6">
       <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="53.4" thickBot="1">
       <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
@@ -2728,7 +2705,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -2746,7 +2723,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2741,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
@@ -2782,48 +2759,47 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99" t="s">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="2:9" ht="13.8" thickBot="1">
       <c r="B13" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B16" s="72" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="16" spans="2:9" ht="13.8" thickBot="1">
+      <c r="B16" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="43" t="s">
@@ -2881,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="84" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3065,13 +3041,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3093,11 +3069,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3123,55 +3099,55 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="2:16" ht="13.8" thickBot="1">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="107" t="s">
+      <c r="D14" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="45" t="s">
@@ -3277,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AK29"/>
+  <dimension ref="B2:AK27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3364,7 +3340,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="64"/>
+      <c r="J5" s="63"/>
       <c r="N5" s="47" t="s">
         <v>50</v>
       </c>
@@ -3374,67 +3350,67 @@
       <c r="P5" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="S5" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="66" t="s">
+      <c r="T5" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="67" t="s">
+      <c r="W5" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="66" t="s">
+      <c r="X5" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="66" t="s">
+      <c r="Y5" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="66" t="s">
+      <c r="Z5" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="66" t="s">
+      <c r="AB5" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="67" t="s">
+      <c r="AD5" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="AE5" s="66" t="s">
+      <c r="AE5" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="AF5" s="66" t="s">
+      <c r="AF5" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" s="66" t="s">
+      <c r="AG5" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="66" t="s">
+      <c r="AH5" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="66" t="s">
+      <c r="AI5" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="AJ5" s="66" t="s">
+      <c r="AJ5" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AK5" s="67" t="s">
+      <c r="AK5" s="66" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3452,20 +3428,20 @@
         <v>140</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
       <c r="N6" s="48" t="s">
         <v>138</v>
       </c>
@@ -3475,33 +3451,33 @@
       <c r="P6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="77"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="84"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="40" t="s">
@@ -3526,9 +3502,9 @@
         <v>148</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="N7" s="40" t="s">
         <v>143</v>
       </c>
@@ -3538,33 +3514,33 @@
       <c r="P7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="78" t="s">
+      <c r="Q7" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="78" t="s">
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="78" t="s">
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="80"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="87"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3585,11 +3561,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3602,47 +3578,47 @@
         <f t="shared" si="0"/>
         <v>HC</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="55">
         <v>15</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="54">
         <f>Q8*1.02</f>
         <v>15.3</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="54">
         <f t="shared" ref="S8:W8" si="1">R8*1.02</f>
         <v>15.606000000000002</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="54">
         <f t="shared" si="1"/>
         <v>15.918120000000002</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="54">
         <f t="shared" si="1"/>
         <v>16.236482400000003</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8" s="54">
         <f t="shared" si="1"/>
         <v>16.561212048000005</v>
       </c>
-      <c r="W8" s="61">
+      <c r="W8" s="60">
         <f t="shared" si="1"/>
         <v>16.892436288960006</v>
       </c>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
     </row>
     <row r="9" spans="2:37" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="str">
@@ -3663,9 +3639,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3678,7 +3654,7 @@
         <f t="shared" ref="P9:P13" si="4">D9</f>
         <v>BC</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="56">
         <v>7</v>
       </c>
       <c r="R9" s="22">
@@ -3701,7 +3677,7 @@
         <f t="shared" si="5"/>
         <v>7.3570703506999999</v>
       </c>
-      <c r="W9" s="62">
+      <c r="W9" s="61">
         <f t="shared" si="5"/>
         <v>7.4306410542070003</v>
       </c>
@@ -3712,7 +3688,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="57"/>
+      <c r="AE9" s="56"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -3739,9 +3715,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3754,7 +3730,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="57">
         <v>28</v>
       </c>
       <c r="R10" s="15">
@@ -3777,7 +3753,7 @@
         <f t="shared" si="6"/>
         <v>32.459674080400006</v>
       </c>
-      <c r="W10" s="63">
+      <c r="W10" s="62">
         <f t="shared" si="6"/>
         <v>33.433464302812006</v>
       </c>
@@ -3788,7 +3764,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="58"/>
+      <c r="AE10" s="57"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
@@ -3815,9 +3791,9 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3830,7 +3806,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="56">
         <v>30</v>
       </c>
       <c r="R11" s="22">
@@ -3853,7 +3829,7 @@
         <f t="shared" si="7"/>
         <v>28.529701496999998</v>
       </c>
-      <c r="W11" s="62">
+      <c r="W11" s="61">
         <f t="shared" si="7"/>
         <v>28.244404482029999</v>
       </c>
@@ -3864,7 +3840,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="57"/>
+      <c r="AE11" s="56"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="22"/>
@@ -3891,9 +3867,9 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -3906,7 +3882,7 @@
         <f t="shared" si="4"/>
         <v>WIND-ON</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="58">
         <v>1E-3</v>
       </c>
       <c r="R12" s="51">
@@ -3924,7 +3900,7 @@
       <c r="V12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="W12" s="70">
+      <c r="W12" s="69">
         <v>1E-3</v>
       </c>
       <c r="X12" s="14"/>
@@ -3934,7 +3910,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="68"/>
+      <c r="AE12" s="67"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
@@ -3943,27 +3919,27 @@
       <c r="AK12" s="14"/>
     </row>
     <row r="13" spans="2:37" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="19" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="19" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar</v>
       </c>
-      <c r="D13" s="111" t="str">
+      <c r="D13" s="77" t="str">
         <f>SEC_Comm!C12</f>
         <v>SOLAR</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="78">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -3976,7 +3952,7 @@
         <f t="shared" si="4"/>
         <v>SOLAR</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="59">
         <v>1E-3</v>
       </c>
       <c r="R13" s="52">
@@ -3994,7 +3970,7 @@
       <c r="V13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="W13" s="71">
+      <c r="W13" s="70">
         <v>1E-3</v>
       </c>
       <c r="X13" s="25"/>
@@ -4004,7 +3980,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="69"/>
+      <c r="AE13" s="68"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -4013,24 +3989,24 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="2:37" ht="13.8" thickBot="1">
-      <c r="B14" s="109" t="str">
+      <c r="B14" s="76" t="str">
         <f>SEC_Processes!D14</f>
         <v>MIN_HYDRO</v>
       </c>
-      <c r="C14" s="109" t="str">
+      <c r="C14" s="76" t="str">
         <f>SEC_Processes!E14</f>
         <v>Hydro</v>
       </c>
-      <c r="D14" s="109" t="str">
+      <c r="D14" s="76" t="str">
         <f>SEC_Comm!C13</f>
         <v>HYDRO</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="76">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="17" spans="2:7" ht="17.399999999999999">
       <c r="B17" s="8" t="s">
@@ -4116,47 +4092,65 @@
         <f>E8</f>
         <v>15</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="53"/>
+      <c r="B23" s="19" t="str">
+        <f t="shared" ref="B23:E27" si="8">B9</f>
+        <v>MIN_BC</v>
+      </c>
+      <c r="C23" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>Brown Coal Domestic Supply</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>BC</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="53"/>
+      <c r="B24" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_NAT-GAS</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>Natural Gas Domestic Supply</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>NAT-GAS</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25:E29" si="8">B9</f>
-        <v>MIN_BC</v>
+        <f t="shared" si="8"/>
+        <v>IMP_NAT-GAS</v>
       </c>
       <c r="C25" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>Brown Coal Domestic Supply</v>
+        <v>Natural Gas Imports</v>
       </c>
       <c r="D25" s="20" t="str">
         <f t="shared" si="8"/>
-        <v>BC</v>
+        <v>NAT-GAS</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -4164,82 +4158,42 @@
     <row r="26" spans="2:7">
       <c r="B26" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>MIN_NAT-GAS</v>
+        <v>MIN_WIND-ON</v>
       </c>
       <c r="C26" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>Natural Gas Domestic Supply</v>
-      </c>
-      <c r="D26" s="18" t="str">
+        <v>Wind Onshore</v>
+      </c>
+      <c r="D26" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>NAT-GAS</v>
-      </c>
-      <c r="E26" s="15">
+        <v>WIND-ON</v>
+      </c>
+      <c r="E26" s="51">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>1E-3</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="19" t="str">
+    <row r="27" spans="2:7" ht="13.8" thickBot="1">
+      <c r="B27" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>IMP_NAT-GAS</v>
-      </c>
-      <c r="C27" s="19" t="str">
+        <v>MIN_SOLAR</v>
+      </c>
+      <c r="C27" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Natural Gas Imports</v>
-      </c>
-      <c r="D27" s="20" t="str">
+        <v>Solar</v>
+      </c>
+      <c r="D27" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>NAT-GAS</v>
-      </c>
-      <c r="E27" s="22">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN_WIND-ON</v>
-      </c>
-      <c r="C28" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>Wind Onshore</v>
-      </c>
-      <c r="D28" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v>WIND-ON</v>
-      </c>
-      <c r="E28" s="51">
+        <v>SOLAR</v>
+      </c>
+      <c r="E27" s="52">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
-      <c r="B29" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN_SOLAR</v>
-      </c>
-      <c r="C29" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v>Solar</v>
-      </c>
-      <c r="D29" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>SOLAR</v>
-      </c>
-      <c r="E29" s="52">
-        <f t="shared" si="8"/>
-        <v>1E-3</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4271,15 +4225,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4474,6 +4419,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -4486,14 +4440,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4510,4 +4456,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>